--- a/汇总表格.xlsx
+++ b/汇总表格.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AB$32</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>拼装</t>
   </si>
@@ -52,6 +55,126 @@
   </si>
   <si>
     <t>单位</t>
+  </si>
+  <si>
+    <t>诸暨煤矿</t>
+  </si>
+  <si>
+    <t>GZ2-1</t>
+  </si>
+  <si>
+    <t>HI450-8-12*300</t>
+  </si>
+  <si>
+    <t>广东华丰</t>
+  </si>
+  <si>
+    <t>KFZ2</t>
+  </si>
+  <si>
+    <t>BH630*200*8*12</t>
+  </si>
+  <si>
+    <t>大东海</t>
+  </si>
+  <si>
+    <t>1DCL11</t>
+  </si>
+  <si>
+    <t>WI2000-14-35*700-35*500</t>
+  </si>
+  <si>
+    <t>KFZ8</t>
+  </si>
+  <si>
+    <t>GL1D</t>
+  </si>
+  <si>
+    <t>BH(900～600)*250*8*12</t>
+  </si>
+  <si>
+    <t>GL3</t>
+  </si>
+  <si>
+    <t>GL3B</t>
+  </si>
+  <si>
+    <t>GL3C</t>
+  </si>
+  <si>
+    <t>GL6</t>
+  </si>
+  <si>
+    <t>GL6B</t>
+  </si>
+  <si>
+    <t>GL6C</t>
+  </si>
+  <si>
+    <t>GL6D</t>
+  </si>
+  <si>
+    <t>GL7C</t>
+  </si>
+  <si>
+    <t>GL7D</t>
+  </si>
+  <si>
+    <t>GL9</t>
+  </si>
+  <si>
+    <t>GL9A</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>BH900*300*10*14</t>
+  </si>
+  <si>
+    <t>GL3A</t>
+  </si>
+  <si>
+    <t>GL3D</t>
+  </si>
+  <si>
+    <t>GL6A</t>
+  </si>
+  <si>
+    <t>GL8</t>
+  </si>
+  <si>
+    <t>BH600*250*8*12</t>
+  </si>
+  <si>
+    <t>GL8A</t>
+  </si>
+  <si>
+    <t>GL8B</t>
+  </si>
+  <si>
+    <t>GL8C</t>
+  </si>
+  <si>
+    <t>GL8D</t>
+  </si>
+  <si>
+    <t>GL9B</t>
+  </si>
+  <si>
+    <t>GL9C</t>
+  </si>
+  <si>
+    <t>GL9D</t>
+  </si>
+  <si>
+    <t>ZC1</t>
+  </si>
+  <si>
+    <t>L125*125*10</t>
+  </si>
+  <si>
+    <t>ZC3</t>
   </si>
 </sst>
 </file>
@@ -60,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -88,9 +211,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,37 +246,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +269,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -165,14 +284,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +307,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -194,18 +322,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,16 +353,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,31 +375,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,156 +549,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -496,6 +617,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -511,11 +669,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +691,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -546,15 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,175 +764,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,23 +939,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -808,42 +990,43 @@
     <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1141,19 +1324,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="17" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="3"/>
     <col min="19" max="27" width="9" style="1"/>
     <col min="28" max="28" width="9" style="4"/>
@@ -1164,117 +1359,812 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="18"/>
       <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="3" ht="15.6" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1104.9</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3*D3</f>
+        <v>15468.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="14">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>454.8</v>
+      </c>
+      <c r="O3" s="1">
+        <f>N3*M3</f>
+        <v>454.8</v>
+      </c>
+      <c r="P3" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>16541.91</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>8795.8</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4*D4</f>
+        <v>35183.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13">
+        <v>866.2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O17" si="0">N4*M4</f>
+        <v>866.2</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" ht="15.6" spans="10:17">
+      <c r="J5" s="15"/>
+      <c r="K5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="14">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>876.4</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>876.4</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" ht="15.6" spans="10:17">
+      <c r="J6" s="15"/>
+      <c r="K6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="14">
+        <v>3</v>
+      </c>
+      <c r="N6" s="13">
+        <v>898.9</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>2696.7</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" ht="15.6" spans="10:17">
+      <c r="J7" s="15"/>
+      <c r="K7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>907.4</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>907.4</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" ht="15.6" spans="10:17">
+      <c r="J8" s="15"/>
+      <c r="K8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
+        <v>908.5</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>908.5</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" ht="15.6" spans="10:17">
+      <c r="J9" s="15"/>
+      <c r="K9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="13">
+        <v>898.9</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>898.9</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" ht="15.6" spans="10:17">
+      <c r="J10" s="15"/>
+      <c r="K10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="13">
+        <v>907.4</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>907.4</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" ht="15.6" spans="10:17">
+      <c r="J11" s="15"/>
+      <c r="K11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13">
+        <v>908.5</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>908.5</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" ht="15.6" spans="10:17">
+      <c r="J12" s="15"/>
+      <c r="K12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>906.5</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>906.5</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" ht="15.6" spans="10:17">
+      <c r="J13" s="15"/>
+      <c r="K13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>909.1</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>909.1</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" ht="15.6" spans="10:17">
+      <c r="J14" s="15"/>
+      <c r="K14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
+        <v>906.8</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>906.8</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" ht="15.6" spans="10:17">
+      <c r="J15" s="15"/>
+      <c r="K15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="14">
+        <v>2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>898.9</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>1797.8</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" ht="15.6" spans="10:17">
+      <c r="J16" s="15"/>
+      <c r="K16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="13">
+        <v>907.4</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>907.4</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" ht="15.6" spans="10:17">
+      <c r="J17" s="16"/>
+      <c r="K17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13">
+        <v>2027.1</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>2027.1</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" ht="15.6" spans="10:17">
+      <c r="J18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="17">
+        <v>898.9</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O32" si="1">N18*M18</f>
+        <v>898.9</v>
+      </c>
+      <c r="P18" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="10:17">
+      <c r="J19" s="15"/>
+      <c r="K19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="17">
+        <v>907.4</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>907.4</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" ht="15.6" spans="10:17">
+      <c r="J20" s="15"/>
+      <c r="K20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="17">
+        <v>906.5</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>906.5</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" ht="15.6" spans="10:17">
+      <c r="J21" s="15"/>
+      <c r="K21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17">
+        <v>898.9</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>2696.7</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" ht="15.6" spans="10:17">
+      <c r="J22" s="15"/>
+      <c r="K22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17">
+        <v>907.4</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>907.4</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" ht="15.6" spans="10:17">
+      <c r="J23" s="15"/>
+      <c r="K23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="14">
+        <v>2</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1099</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>2198</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" ht="15.6" spans="10:17">
+      <c r="J24" s="15"/>
+      <c r="K24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1103.7</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1103.7</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" ht="15.6" spans="10:17">
+      <c r="J25" s="15"/>
+      <c r="K25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="17">
+        <v>1103.7</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1103.7</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" ht="15.6" spans="10:17">
+      <c r="J26" s="15"/>
+      <c r="K26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1102.8</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1102.8</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" ht="15.6" spans="10:17">
+      <c r="J27" s="15"/>
+      <c r="K27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1100.8</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1100.8</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" ht="15.6" spans="10:17">
+      <c r="J28" s="15"/>
+      <c r="K28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17">
+        <v>907.4</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>907.4</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" ht="15.6" spans="10:17">
+      <c r="J29" s="15"/>
+      <c r="K29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17">
+        <v>909</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>909</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" ht="15.6" spans="10:17">
+      <c r="J30" s="15"/>
+      <c r="K30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17">
+        <v>906.7</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>906.7</v>
+      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" ht="15.6" spans="10:17">
+      <c r="J31" s="15"/>
+      <c r="K31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="1">
+        <v>6</v>
+      </c>
+      <c r="N31" s="14">
+        <v>411.8</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>2470.8</v>
+      </c>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" ht="15.6" spans="10:17">
+      <c r="J32" s="16"/>
+      <c r="K32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="1">
+        <v>6</v>
+      </c>
+      <c r="N32" s="14">
+        <v>518</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>3108</v>
+      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="A2:AB32">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="S1:AA1"/>
+    <mergeCell ref="J3:J17"/>
+    <mergeCell ref="J18:J32"/>
+    <mergeCell ref="P3:P17"/>
+    <mergeCell ref="P18:P32"/>
+    <mergeCell ref="Q3:Q17"/>
+    <mergeCell ref="Q18:Q32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
